--- a/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
+++ b/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
+++ b/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,9 @@
 *  R4B: `QuestionnaireResponse.item` 0..* `BackboneElement`
 *  R4: `QuestionnaireResponse.item` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `QuestionnaireResponse.item` is mapped to FHIR R4 element `QuestionnaireResponse.item`.</t>
+Element `QuestionnaireResponse.item` has is mapped to FHIR R4 element `QuestionnaireResponse.item`, but has no comparisons.
+Note available implied context: `QuestionnaireResponse.item.answer.item` because `QuestionnaireResponse.item.answer.item` is defined as a content reference to `QuestionnaireResponse.item`.
+Note available implied context: `QuestionnaireResponse.item.item` because `QuestionnaireResponse.item.item` is defined as a content reference to `QuestionnaireResponse.item`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +144,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:QuestionnaireResponse.item</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +345,8 @@
     <t>The item from the Questionnaire that corresponds to this item in the QuestionnaireResponse resource.</t>
   </si>
   <si>
-    <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier. Element `QuestionnaireResponse.item.linkId` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `QuestionnaireResponse.item.linkId` is mapped to FHIR R4 element `QuestionnaireResponse.item.linkId`.</t>
+    <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier. Element `QuestionnaireResponse.item.linkId` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a cross-version extension.
+Element `QuestionnaireResponse.item.linkId` has is mapped to FHIR R4 element `QuestionnaireResponse.item.linkId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -429,8 +431,8 @@
 There is no need for this element if the item pointed to by the linkId has a definition listed.</t>
   </si>
   <si>
-    <t>A common pattern is to define a set of data elements, and then build multiple different questionnaires for different circumstances to gather the data. This element provides traceability to the common definition. Element `QuestionnaireResponse.item.definition` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `QuestionnaireResponse.item.definition` is mapped to FHIR R4 element `QuestionnaireResponse.item.definition`.</t>
+    <t>A common pattern is to define a set of data elements, and then build multiple different questionnaires for different circumstances to gather the data. This element provides traceability to the common definition. Element `QuestionnaireResponse.item.definition` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a cross-version extension.
+Element `QuestionnaireResponse.item.definition` has is mapped to FHIR R4 element `QuestionnaireResponse.item.definition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -463,8 +465,8 @@
     <t>The text for an item SHOULD be identical to the text from the corresponding Questionnaire.item. This can't be strictly enforced because it's possible for the Questionnaire to be updated subsequent to the QuestionnaireResponse having been created, however the intention is that the text in the QuestionnaireResponse reflects what the user saw when completing the Questionnaire.</t>
   </si>
   <si>
-    <t>Allows the questionnaire response to be read without access to the questionnaire. Element `QuestionnaireResponse.item.text` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `QuestionnaireResponse.item.text` is mapped to FHIR R4 element `QuestionnaireResponse.item.text`.</t>
+    <t>Allows the questionnaire response to be read without access to the questionnaire. Element `QuestionnaireResponse.item.text` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a cross-version extension.
+Element `QuestionnaireResponse.item.text` has is mapped to FHIR R4 element `QuestionnaireResponse.item.text`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.id</t>
@@ -497,8 +499,8 @@
     <t>The value is nested because we cannot have a repeating structure that has variable type.</t>
   </si>
   <si>
-    <t>Element `QuestionnaireResponse.item.answer` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `QuestionnaireResponse.item.answer` is mapped to FHIR R4 element `QuestionnaireResponse.item.answer`.</t>
+    <t>Element `QuestionnaireResponse.item.answer` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a cross-version extension.
+Element `QuestionnaireResponse.item.answer` has is mapped to FHIR R4 element `QuestionnaireResponse.item.answer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answer.id</t>
@@ -522,8 +524,9 @@
     <t>More complex structures (Attachment, Resource and Quantity) will typically be limited to electronic forms that can expose an appropriate user interface to capture the components and enforce the constraints of a complex data type.  Additional complex types can be introduced through extensions. Must match the datatype specified by Questionnaire.item.type in the corresponding Questionnaire.     Note that a question is answered using one of the possible choices defined with answerOption, answerValueSet or some other means and the answer has a complex data type, all elements within the answer in the QuestionnaireResponse **SHOULD** match the elements defined corresponding choice value in the Questionnaire.  However, it is possible that not all elements will be propagated.  Also, some systems might use language translations resulting in different displays.  Comparison of value to the values defined in the Questionnaire (whether by answerOption, answerValueSet or answerExpression) **SHALL NOT** pay attention to Coding.display, Reference.display, Quantity.unit unless those are the only elements present.  As well, systems are not required to check for a match on any extensions (e.g. ordinal values, translations, etc.).  Systems **MAY** enforce that if extensions such as ordinal values are present in both Questionnaire and QuestionnaireResponse, they match.</t>
   </si>
   <si>
-    <t>Ability to retain a single-valued answer to a question. Note that the target element context `QuestionnaireResponse.item.answer.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `QuestionnaireResponse.item.answer`.
-Element `QuestionnaireResponse.item.answer.value[x]` is mapped to FHIR R4 element `QuestionnaireResponse.item.answer.value[x]`.
+    <t>Ability to retain a single-valued answer to a question. Element `QuestionnaireResponse.item.answer.value[x]` is part of an existing definition because parent element `QuestionnaireResponse.item.answer` requires a cross-version extension.
+Note that the target element context `QuestionnaireResponse.item.answer.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `QuestionnaireResponse.item.answer`.
+Element `QuestionnaireResponse.item.answer.value[x]` has is mapped to FHIR R4 element `QuestionnaireResponse.item.answer.value[x]`, but has no comparisons.
 Note that the target element context `QuestionnaireResponse.item.answer.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `QuestionnaireResponse.item.answer`.</t>
   </si>
   <si>
@@ -582,7 +585,8 @@
     <t>Only used when nesting beneath a question - see item.item for nesting beneath groups</t>
   </si>
   <si>
-    <t>It is useful to have "sub-questions", questions which normally appear when certain answers are given and which collect additional details. Element `QuestionnaireResponse.item.answer.item` is mapped to FHIR R4 element `QuestionnaireResponse.item.answer.item`.</t>
+    <t>It is useful to have "sub-questions", questions which normally appear when certain answers are given and which collect additional details. Element `QuestionnaireResponse.item.answer.item` is part of an existing definition because parent element `QuestionnaireResponse.item.answer` requires a cross-version extension.
+Element `QuestionnaireResponse.item.answer.item` has is mapped to FHIR R4 element `QuestionnaireResponse.item.answer.item`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answer.extension:item.id</t>
@@ -628,8 +632,8 @@
     <t>Only used when nesting beneath a group - see item.answer.item for nesting beneath questions</t>
   </si>
   <si>
-    <t>Reports can consist of complex nested groups. Element `QuestionnaireResponse.item.item` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `QuestionnaireResponse.item.item` is mapped to FHIR R4 element `QuestionnaireResponse.item.item`.</t>
+    <t>Reports can consist of complex nested groups. Element `QuestionnaireResponse.item.item` is part of an existing definition because parent element `QuestionnaireResponse.item` requires a cross-version extension.
+Element `QuestionnaireResponse.item.item` has is mapped to FHIR R4 element `QuestionnaireResponse.item.item`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:item.id</t>

--- a/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
+++ b/StructureDefinition-ext-R5-QuestionnaireResponse.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -558,16 +558,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantity {SimpleQuantity|4.0.1}Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Binding this is problematic because one value set can't apply to both codes and quantities.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-questionnaire-answers-for-R4</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantity {SimpleQuantity}Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:answer.extension:item</t>
@@ -995,8 +986,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.3828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.73828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3810,13 +3801,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -3854,13 +3845,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3885,16 +3876,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3963,7 +3954,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>163</v>
@@ -4066,7 +4057,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>165</v>
@@ -4171,7 +4162,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>167</v>
@@ -4276,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>170</v>
@@ -4302,13 +4293,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4379,7 +4370,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4422,7 +4413,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4484,7 +4475,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4510,13 +4501,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4587,13 +4578,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4618,16 +4609,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4696,7 +4687,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4799,7 +4790,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4904,7 +4895,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5009,7 +5000,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5035,13 +5026,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5243,13 +5234,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
